--- a/ImplementationSummary.xlsx
+++ b/ImplementationSummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNHU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNHU\Documents\hoversprite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2F246-CC14-436C-9817-ADF13EB30F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D85E8E-851E-4892-89C9-9A3AACD019E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12795" windowHeight="12735" xr2:uid="{8E7FCB88-6FEF-4308-8F37-F5D1C2F8609E}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15510" windowHeight="12735" xr2:uid="{8E7FCB88-6FEF-4308-8F37-F5D1C2F8609E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
-    <t>EEET2580 Implementation Summary
-Group ID &lt;= Add your team ID here</t>
-  </si>
-  <si>
     <t>Level 1</t>
   </si>
   <si>
@@ -178,6 +174,10 @@
   </si>
   <si>
     <t>The RE2, the structure of our Front-end would need to be restructured again.</t>
+  </si>
+  <si>
+    <t>EEET2580 Implementation Summary
+Group ID: 1</t>
   </si>
 </sst>
 </file>
@@ -358,38 +358,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +728,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,208 +738,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="F11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
